--- a/database/industries/lastic/parta/product/yearly.xlsx
+++ b/database/industries/lastic/parta/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB3378-70AB-477D-BAA4-640D4B5D7325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2DDD41-7D0E-4CE8-95BF-FEBEFE17F052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -575,12 +575,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -590,7 +590,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -624,7 +624,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -658,7 +658,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -690,7 +690,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -762,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -856,7 +856,7 @@
         <v>18017</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -880,7 +880,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
@@ -904,7 +904,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
@@ -928,7 +928,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
@@ -950,7 +950,7 @@
         <v>26784</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -960,7 +960,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -970,7 +970,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -980,7 +980,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1012,7 +1012,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>17738</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>3881</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>23</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>26986</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1306,7 +1306,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1316,7 +1316,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1326,7 +1326,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>14</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>25</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>17</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1017257</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>9921696</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>2357097</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2095654</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>22</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>818326</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>23</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>16210557</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1654,7 +1654,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1664,7 +1664,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1674,7 +1674,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1706,7 +1706,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>527000000</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>14</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>25</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>19</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>559346939</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>655659805</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>21</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>539977841</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>22</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>462070017</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1956,7 +1956,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1966,7 +1966,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1976,7 +1976,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2008,7 +2008,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>-376</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>15</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>17</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>-8048171</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>20</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>-1789089</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>-1913743</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>22</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>-868923</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>23</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>-12620302</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2208,7 +2208,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2218,7 +2218,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2228,7 +2228,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>31</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2260,7 +2260,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>10</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>15</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>17</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>1017257</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>19</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1873525</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>20</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>568008</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>21</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>181911</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>22</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>-50597</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>23</v>
       </c>
